--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/24.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/24.xlsx
@@ -479,13 +479,13 @@
         <v>-13.29011110018972</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.6309563397305</v>
+        <v>-21.62704513423697</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06098071735496564</v>
+        <v>-0.06923336094631807</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.924950616353311</v>
+        <v>-8.911725852778305</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.76842862177808</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.77711320001692</v>
+        <v>-21.7740722377457</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.194607053041485</v>
+        <v>-0.2026690253650278</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.434984126164828</v>
+        <v>-8.424624320613836</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.09872094109415</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.95156763204905</v>
+        <v>-21.95044316046966</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3551229264960366</v>
+        <v>-0.3611412939492089</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.329767809381952</v>
+        <v>-8.319725789277308</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.20738049096588</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.06870334757346</v>
+        <v>-22.06769132315201</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3829902656374518</v>
+        <v>-0.3873610377764737</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.796157154892519</v>
+        <v>-7.791233924977536</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.09766194495394</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.99281618298521</v>
+        <v>-21.99361309110452</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5053229954613976</v>
+        <v>-0.5095030963326099</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.102617307772565</v>
+        <v>-7.097762523953719</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.77245400162416</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.2617751177548</v>
+        <v>-22.26287514429986</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6572244388164451</v>
+        <v>-0.6603240691700691</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.509844781186596</v>
+        <v>-6.508118961762575</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.24924390763595</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.64888668147713</v>
+        <v>-22.6502947154548</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8273716557988191</v>
+        <v>-0.830309948925835</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.089409746659378</v>
+        <v>-6.089629751968389</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.53516565363236</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.91643269326218</v>
+        <v>-22.92026078563898</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.957800580994376</v>
+        <v>-0.9584019288390067</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.762115181953757</v>
+        <v>-5.763762777267907</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.65423195033337</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.36059407811454</v>
+        <v>-23.36644621933424</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.056358070424515</v>
+        <v>-1.057590100154977</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.461133252205872</v>
+        <v>-5.464056878312287</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.63655812582101</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76904126780408</v>
+        <v>-23.77736235749157</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.319782649420759</v>
+        <v>-1.319601756166683</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.069333130898174</v>
+        <v>-5.070804721965116</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.507181859325348</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23384403964855</v>
+        <v>-24.24283981228367</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.240140727558714</v>
+        <v>-1.238708248546708</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.91248401259381</v>
+        <v>-4.912347120401535</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.285899569745034</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.81793369003888</v>
+        <v>-24.82932507603879</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.172823992008162</v>
+        <v>-1.170887945288864</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.843280120392628</v>
+        <v>-4.839892038633856</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.011362782684375</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.4182792882617</v>
+        <v>-25.4295240040556</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.107061960641289</v>
+        <v>-1.104260559706547</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.714943690136111</v>
+        <v>-4.709482669465767</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.709272977998652</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03080829159687</v>
+        <v>-26.04414061332295</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.064913832441616</v>
+        <v>-1.061770201026189</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.735971308670712</v>
+        <v>-4.729600932723121</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.402072227908413</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.80365760811192</v>
+        <v>-26.8182464046028</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9717978076543535</v>
+        <v>-0.9673977014741301</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.692728042932849</v>
+        <v>-4.683126033446229</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.125249921403903</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.56003097148547</v>
+        <v>-27.57460998996261</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8479690417291318</v>
+        <v>-0.84393072205706</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.724824373014146</v>
+        <v>-4.714288563215944</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.905395455816262</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.44588479272239</v>
+        <v>-28.45881621588538</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6782716133785139</v>
+        <v>-0.674526634118457</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.982607038085971</v>
+        <v>-4.971997893184765</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.7609867313690408</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.09382731729806</v>
+        <v>-29.10893923752369</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4268202121993443</v>
+        <v>-0.4229481187607477</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.281408470771211</v>
+        <v>-5.267166793767888</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2860392675721061</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.51635729126775</v>
+        <v>-29.5310316453788</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2230659620137969</v>
+        <v>-0.2191352004927973</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.60445937751635</v>
+        <v>-5.589142119002306</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.214410383891582</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.11289190863781</v>
+        <v>-30.12644668017633</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1897373327941667</v>
+        <v>0.1938245425349076</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.935518477509496</v>
+        <v>-5.916319347543121</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.013483147981236</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.66796774777643</v>
+        <v>-30.68326056125614</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2484591942726822</v>
+        <v>0.2508792526718051</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.206296122833581</v>
+        <v>-6.187737452766771</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.677545689153556</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.99273225142842</v>
+        <v>-31.00896375422658</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5329260588241285</v>
+        <v>0.5352532260927799</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.504295758392647</v>
+        <v>-6.483493034173924</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.19451904682183</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.19769653081353</v>
+        <v>-31.21619164379107</v>
       </c>
       <c r="F24" t="n">
-        <v>0.72350443550334</v>
+        <v>0.7271907466809939</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.767378106908208</v>
+        <v>-6.746873612108367</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.56417277628502</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.49452036022111</v>
+        <v>-31.51502241051752</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9643809148293726</v>
+        <v>0.9671529817229134</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.825439952459689</v>
+        <v>-6.802495843233258</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.790258483313358</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.40710980644754</v>
+        <v>-31.42655827576412</v>
       </c>
       <c r="F26" t="n">
-        <v>0.997987948032546</v>
+        <v>0.9977043856342649</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.008059025959564</v>
+        <v>-6.987520308111653</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.875252918240216</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.50607308344763</v>
+        <v>-31.52669735891571</v>
       </c>
       <c r="F27" t="n">
-        <v>1.24204717082894</v>
+        <v>1.243318312614338</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.265929693154992</v>
+        <v>-7.24664745007188</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.825558406383413</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.32817923508463</v>
+        <v>-31.34792348931666</v>
       </c>
       <c r="F28" t="n">
-        <v>1.401321236539295</v>
+        <v>1.403403953464601</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.451614173960422</v>
+        <v>-7.430787004707365</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.651147279689971</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.13180005175782</v>
+        <v>-31.1517154212302</v>
       </c>
       <c r="F29" t="n">
-        <v>1.422006624593213</v>
+        <v>1.42459290922581</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.756150411700554</v>
+        <v>-7.73413032477197</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.364769935003099</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.02622439297022</v>
+        <v>-31.04752824039281</v>
       </c>
       <c r="F30" t="n">
-        <v>1.551457748415386</v>
+        <v>1.553628467464297</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.799300786307946</v>
+        <v>-7.77550598988667</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.97790565202964</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.7434980148634</v>
+        <v>-30.76391450753964</v>
       </c>
       <c r="F31" t="n">
-        <v>1.454943863855618</v>
+        <v>1.457862600955167</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.738721102220002</v>
+        <v>-7.716202336590992</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.503962289727885</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.33586728932064</v>
+        <v>-30.35815382712347</v>
       </c>
       <c r="F32" t="n">
-        <v>1.434810933577663</v>
+        <v>1.436434083857479</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.732717401787431</v>
+        <v>-7.708658598995342</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.957596548129708</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.84273272268239</v>
+        <v>-29.86239630830112</v>
       </c>
       <c r="F33" t="n">
-        <v>1.374397475723195</v>
+        <v>1.377487328063085</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.984247027076471</v>
+        <v>-7.962476279498099</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.35499911791831</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.26971178383876</v>
+        <v>-29.28792577892145</v>
       </c>
       <c r="F34" t="n">
-        <v>1.37608418309228</v>
+        <v>1.378738913821015</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.995232625506429</v>
+        <v>-7.972293405286864</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7080559580185456</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.78810060638583</v>
+        <v>-28.8091771149891</v>
       </c>
       <c r="F35" t="n">
-        <v>1.392525913185715</v>
+        <v>1.394554851035485</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.968039969312648</v>
+        <v>-7.946396335912816</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.02805254709583946</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.15562934404051</v>
+        <v>-28.17667162959572</v>
       </c>
       <c r="F36" t="n">
-        <v>1.319234811243793</v>
+        <v>1.320838405496142</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.790549464016168</v>
+        <v>-7.768964498698738</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.669004355873559</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.51315272914205</v>
+        <v>-27.53171873271916</v>
       </c>
       <c r="F37" t="n">
-        <v>1.408297849338383</v>
+        <v>1.410033446776138</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.698988143412585</v>
+        <v>-7.680331693208437</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.374027574352035</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.92943464327361</v>
+        <v>-26.94875110940479</v>
       </c>
       <c r="F38" t="n">
-        <v>1.241783164458127</v>
+        <v>1.244379227104459</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.62557481629899</v>
+        <v>-7.609905549290527</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.078936443625991</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16019096932291</v>
+        <v>-26.17868608230045</v>
       </c>
       <c r="F39" t="n">
-        <v>1.326509653461763</v>
+        <v>1.328563036345867</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.5364971111838</v>
+        <v>-7.521052738491215</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.77078874949618</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.53094645150976</v>
+        <v>-25.54567702919977</v>
       </c>
       <c r="F40" t="n">
-        <v>1.321982433103</v>
+        <v>1.323776698623157</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.195171096770133</v>
+        <v>-7.183779710770221</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.441702243717274</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.95695748930647</v>
+        <v>-24.97152184076301</v>
       </c>
       <c r="F41" t="n">
-        <v>1.379090922315433</v>
+        <v>1.380420732183234</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.181951222201994</v>
+        <v>-7.170193160687064</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.089492948575374</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.27977625916322</v>
+        <v>-24.2931819159923</v>
       </c>
       <c r="F42" t="n">
-        <v>1.375375277096578</v>
+        <v>1.377443327001283</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.918756426528495</v>
+        <v>-6.9077023820024</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.710449322399105</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.59808736468867</v>
+        <v>-23.61095034175552</v>
       </c>
       <c r="F43" t="n">
-        <v>1.328582592373335</v>
+        <v>1.329966181316672</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.851772143444893</v>
+        <v>-6.844335964000315</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.300420381159849</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.90996942618412</v>
+        <v>-22.92132170012909</v>
       </c>
       <c r="F44" t="n">
-        <v>1.44039417941968</v>
+        <v>1.441631098157009</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.771299090415473</v>
+        <v>-6.763056224837855</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.864044907523451</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.07902893007639</v>
+        <v>-22.08982385723854</v>
       </c>
       <c r="F45" t="n">
-        <v>1.483965008617626</v>
+        <v>1.485441488691434</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.612186361931726</v>
+        <v>-6.606040880300014</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.402872557883025</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.55664343535339</v>
+        <v>-21.56702279693186</v>
       </c>
       <c r="F46" t="n">
-        <v>1.472862074022862</v>
+        <v>1.47552658276533</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.49975876002015</v>
+        <v>-6.495075091441645</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.909635263393986</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.86562631577677</v>
+        <v>-20.87580033906682</v>
       </c>
       <c r="F47" t="n">
-        <v>1.556913880078864</v>
+        <v>1.559842395192146</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.475690179214328</v>
+        <v>-6.47060072306587</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.388993651082188</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.21928494095001</v>
+        <v>-20.23073010602546</v>
       </c>
       <c r="F48" t="n">
-        <v>1.603173663053613</v>
+        <v>1.606146179228697</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.446150799724427</v>
+        <v>-6.443280952693549</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.841252213719313</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.45215576246925</v>
+        <v>-19.46131287233099</v>
       </c>
       <c r="F49" t="n">
-        <v>1.747888266314295</v>
+        <v>1.749706976868788</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.202116021962368</v>
+        <v>-6.201040440451647</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.257460584193174</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.04819668108354</v>
+        <v>-19.05883516002595</v>
       </c>
       <c r="F50" t="n">
-        <v>1.737240009358155</v>
+        <v>1.740510754952121</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.217692397840359</v>
+        <v>-6.21762884075109</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.638341529976543</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.47180232750173</v>
+        <v>-18.48192257171625</v>
       </c>
       <c r="F51" t="n">
-        <v>1.717033743977195</v>
+        <v>1.720250710495625</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.279112991109412</v>
+        <v>-6.277176944390114</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.983945643385573</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.01010407501775</v>
+        <v>-18.01854738987691</v>
       </c>
       <c r="F52" t="n">
-        <v>1.718876899566022</v>
+        <v>1.72028982255056</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.28100014776004</v>
+        <v>-6.281210375055318</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.286967144825033</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.60622321774191</v>
+        <v>-17.61412874184571</v>
       </c>
       <c r="F53" t="n">
-        <v>1.805690994501831</v>
+        <v>1.806453679573069</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.187918346020847</v>
+        <v>-6.187781453828573</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.541692065850555</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.9766462474618</v>
+        <v>-16.98417531803685</v>
       </c>
       <c r="F54" t="n">
-        <v>1.858756275035325</v>
+        <v>1.860208310074799</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.192186449015664</v>
+        <v>-6.192347786242272</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.750308190657883</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.77197286398528</v>
+        <v>-16.77836279596033</v>
       </c>
       <c r="F55" t="n">
-        <v>1.850278737128095</v>
+        <v>1.850919197027661</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.419207482880859</v>
+        <v>-6.422336447275685</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.908831495097155</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.22237026803417</v>
+        <v>-16.22744505716202</v>
       </c>
       <c r="F56" t="n">
-        <v>1.886589391128672</v>
+        <v>1.885508920611084</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.321226896261017</v>
+        <v>-6.32195046927732</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.00673828357028</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.12754797985035</v>
+        <v>-16.13234898459366</v>
       </c>
       <c r="F57" t="n">
-        <v>1.926669469423641</v>
+        <v>1.925471662741247</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.501191239032156</v>
+        <v>-6.50481399312054</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.05003721700054</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91445083754213</v>
+        <v>-15.91761891399189</v>
       </c>
       <c r="F58" t="n">
-        <v>1.815513009297463</v>
+        <v>1.812085815483755</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.658353253776004</v>
+        <v>-6.660611974948519</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.03704036535943</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66047181981276</v>
+        <v>-15.66241275553893</v>
       </c>
       <c r="F59" t="n">
-        <v>1.870362777337382</v>
+        <v>1.868563622810357</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425176960265363</v>
+        <v>-6.426423657016426</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.959024346097348</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43829090274581</v>
+        <v>-15.43995316508057</v>
       </c>
       <c r="F60" t="n">
-        <v>1.934486991403838</v>
+        <v>1.933773196401269</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.443701407284103</v>
+        <v>-6.447025931953606</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.821486361713145</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29849952940011</v>
+        <v>-15.29754617306107</v>
       </c>
       <c r="F61" t="n">
-        <v>1.881671050220556</v>
+        <v>1.87977900456306</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.285067801473314</v>
+        <v>-6.285351363871595</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.627023514082653</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27185444197543</v>
+        <v>-15.27138020830934</v>
       </c>
       <c r="F62" t="n">
-        <v>1.87670381924377</v>
+        <v>1.875193116121894</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.366684882109592</v>
+        <v>-6.367589348379972</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.372362045610869</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22417195800241</v>
+        <v>-15.22343860697237</v>
       </c>
       <c r="F63" t="n">
-        <v>1.863156381215549</v>
+        <v>1.862027020629292</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.399499896200325</v>
+        <v>-6.401005710315335</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.059800269608949</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.27401049400374</v>
+        <v>-15.27371715359172</v>
       </c>
       <c r="F64" t="n">
-        <v>1.709402004257941</v>
+        <v>1.706913499762681</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.391247252608973</v>
+        <v>-6.392190830934287</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.696805561446419</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.32893359714666</v>
+        <v>-15.32644020364453</v>
       </c>
       <c r="F65" t="n">
-        <v>1.700660459979897</v>
+        <v>1.699550655421107</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.49386261773865</v>
+        <v>-6.495138648530915</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.283543415074504</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.33850627259208</v>
+        <v>-15.3355484234376</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794832510250413</v>
+        <v>1.794690729051272</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.446092131642025</v>
+        <v>-6.446908595788799</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.8176139735364</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.22349727505477</v>
+        <v>-15.21900916675095</v>
       </c>
       <c r="F67" t="n">
-        <v>1.617958019819164</v>
+        <v>1.618207359169376</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.199397734144363</v>
+        <v>-6.20043420360015</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.307656913953711</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.35788629581253</v>
+        <v>-15.35295817689068</v>
       </c>
       <c r="F68" t="n">
-        <v>1.582507831027163</v>
+        <v>1.580400669067523</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.320772218622394</v>
+        <v>-6.322102028490194</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.751506572080445</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.27116020300033</v>
+        <v>-15.26544006496604</v>
       </c>
       <c r="F69" t="n">
-        <v>1.54207085523091</v>
+        <v>1.541909518004302</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.194591840394186</v>
+        <v>-6.193384255698058</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.142659180657513</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.32396636616988</v>
+        <v>-15.31803111183344</v>
       </c>
       <c r="F70" t="n">
-        <v>1.476553274207383</v>
+        <v>1.474827454783362</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.131758324140595</v>
+        <v>-6.131787658181796</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.485008681739903</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.3520243765791</v>
+        <v>-15.34487664853967</v>
       </c>
       <c r="F71" t="n">
-        <v>1.368530667482897</v>
+        <v>1.366413727509523</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.138275370294193</v>
+        <v>-6.138079810019516</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.774436343550829</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.47029923070351</v>
+        <v>-15.46389952071472</v>
       </c>
       <c r="F72" t="n">
-        <v>1.290648788092942</v>
+        <v>1.288800743497248</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.002092084016277</v>
+        <v>-6.002952549224854</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.004035238542468</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.5817930323035</v>
+        <v>-15.57431774080399</v>
       </c>
       <c r="F73" t="n">
-        <v>1.223341830556124</v>
+        <v>1.222544922436816</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.153186841238283</v>
+        <v>-6.154286867783339</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.177008807039643</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.69278326619621</v>
+        <v>-15.68694579199711</v>
       </c>
       <c r="F74" t="n">
-        <v>1.085100272387236</v>
+        <v>1.084435367453336</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.06680786791363</v>
+        <v>-6.06805945367156</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.294316057884926</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.95299576768089</v>
+        <v>-15.94538847299597</v>
       </c>
       <c r="F75" t="n">
-        <v>1.030905631267484</v>
+        <v>1.028446460813426</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.104653670070419</v>
+        <v>-6.105523913292729</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.355514629019609</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.977641251297</v>
+        <v>-15.96851836448334</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8095118443061078</v>
+        <v>0.808925163482078</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.233923900638517</v>
+        <v>-6.231645623438534</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3674374487081973</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.02811535819103</v>
+        <v>-16.02068406775332</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6662639431054999</v>
+        <v>0.6653252537870521</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.172610865520537</v>
+        <v>-6.168640991944601</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.656708850160669</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.16166346976768</v>
+        <v>-16.15644201043382</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6850621745087878</v>
+        <v>0.6839621479637319</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.145339985216885</v>
+        <v>-6.140563425507909</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.709014088600689</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.29098747941132</v>
+        <v>-16.28399619959163</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3987961554303168</v>
+        <v>0.3970703360062959</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.1672965150562</v>
+        <v>-6.163126192198721</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.775731250208133</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.76016102339481</v>
+        <v>-16.75591736543433</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3789027864888399</v>
+        <v>0.3780716553214644</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.136637552993776</v>
+        <v>-6.131728990099393</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.833791886573258</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.21744939168483</v>
+        <v>-17.21535200773893</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2141188100394716</v>
+        <v>0.2114396342764022</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.244005032798095</v>
+        <v>-6.238534234114018</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>4.868519138700154</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.64866957536046</v>
+        <v>-17.64686064281971</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09132189397103981</v>
+        <v>-0.09378106442509802</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.295021819454353</v>
+        <v>-6.289340793474998</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>5.862512496593386</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.122580566998</v>
+        <v>-18.12212588935937</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.10320706966451</v>
+        <v>-0.10510889333574</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.349162681498569</v>
+        <v>-6.342112733596478</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>6.788060373055044</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.89854418088727</v>
+        <v>-18.89734148519801</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1997991783341487</v>
+        <v>-0.2006596435427257</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.382065697712907</v>
+        <v>-6.373113926139585</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>7.628480964414935</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.58739547042185</v>
+        <v>-19.58572343007337</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.357567429929494</v>
+        <v>-0.3585256752754094</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.484519725615976</v>
+        <v>-6.475885739489004</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>8.366453221127156</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23578533912585</v>
+        <v>-20.23564844693357</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5193788902037781</v>
+        <v>-0.5206598100029098</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.742766846340158</v>
+        <v>-6.734113304185718</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>8.981025651598301</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98659501268484</v>
+        <v>-20.98574921449687</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6202928809437696</v>
+        <v>-0.6221360365325964</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.076656681309247</v>
+        <v>-7.068599597992571</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>9.458200650907646</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83445636155897</v>
+        <v>-21.83431946936669</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7362454568063913</v>
+        <v>-0.7367392464999498</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.37385451974214</v>
+        <v>-7.362595136927634</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>9.790359019537741</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81979169452388</v>
+        <v>-22.82048593349898</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9473821073609803</v>
+        <v>-0.949645717540362</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.450411478271161</v>
+        <v>-7.439132539429188</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>9.96933182485515</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.87173974605049</v>
+        <v>-23.87468781719124</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.1945702945522</v>
+        <v>-1.19686812777965</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.814965164309541</v>
+        <v>-7.802698646080452</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>9.99203727552003</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.08053691588148</v>
+        <v>-25.084154780963</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.120052051886683</v>
+        <v>-1.122315662066064</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.186647022359884</v>
+        <v>-8.175006297009759</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>9.86568308836892</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34643768591804</v>
+        <v>-26.34944442514119</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.330567798569173</v>
+        <v>-1.332445177206069</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.473602391406589</v>
+        <v>-8.464557728702797</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>9.597561174236438</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.59814566901994</v>
+        <v>-27.60435959674778</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.62226061526992</v>
+        <v>-1.623565980103386</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.777889289796509</v>
+        <v>-8.770565557509871</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>9.195351180312985</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.09437977507402</v>
+        <v>-29.10041036504436</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.863943780728993</v>
+        <v>-1.864295789223411</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.113284938880607</v>
+        <v>-9.10584875943603</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>8.68326166036924</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.7309968243047</v>
+        <v>-30.73490314079136</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.123691826561318</v>
+        <v>-2.123066033682353</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.381872309128314</v>
+        <v>-9.376308619313765</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>8.072438564767708</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.56511752844158</v>
+        <v>-32.57139012425183</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.144856337288192</v>
+        <v>-2.142147827483921</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.732252764259508</v>
+        <v>-9.727525094619201</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>7.386636474673721</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.28520214740766</v>
+        <v>-34.2903918281969</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.508339330822718</v>
+        <v>-2.503381877859666</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.09451839508417</v>
+        <v>-10.09027473712369</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>6.628881380036535</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.27106051316954</v>
+        <v>-36.27573195923088</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.902618178611941</v>
+        <v>-2.897386941264342</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.5145525310483</v>
+        <v>-10.51390718214187</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.848693135891317</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.30068037939719</v>
+        <v>-38.30371645266154</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.180372436735113</v>
+        <v>-3.174764745858762</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.84512273035476</v>
+        <v>-10.8459880845702</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>5.005859191789797</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.50005145305097</v>
+        <v>-40.504495560293</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.543190525335738</v>
+        <v>-3.537470387301448</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.0363757899816</v>
+        <v>-11.03387261846574</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>4.190235125042262</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.41082445135078</v>
+        <v>-42.41669370409451</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.970235497147025</v>
+        <v>-3.965908726069805</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.28139325812391</v>
+        <v>-11.27985322096083</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.281505816160581</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.68024032638686</v>
+        <v>-44.68427131254863</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.216162320566581</v>
+        <v>-4.210500850614693</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.42652342696828</v>
+        <v>-11.42341890760779</v>
       </c>
     </row>
   </sheetData>
